--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Oxt-Avpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Oxt-Avpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Avpr1a</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -534,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.2955753333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.8867259999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.239018529794766</v>
+      </c>
+      <c r="J2">
+        <v>0.2584571780171812</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.192651</v>
-      </c>
-      <c r="H2">
-        <v>0.5779529999999999</v>
-      </c>
-      <c r="I2">
-        <v>0.2471468890314304</v>
-      </c>
-      <c r="J2">
-        <v>0.2471468890314304</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.5297433333333333</v>
+        <v>0.1882183333333333</v>
       </c>
       <c r="N2">
-        <v>1.58923</v>
+        <v>0.564655</v>
       </c>
       <c r="O2">
-        <v>0.0239856840829601</v>
+        <v>0.01184593174728904</v>
       </c>
       <c r="P2">
-        <v>0.02668478215515578</v>
+        <v>0.01206006386170697</v>
       </c>
       <c r="Q2">
-        <v>0.10205558291</v>
+        <v>0.05563269661444444</v>
       </c>
       <c r="R2">
-        <v>0.91850024619</v>
+        <v>0.50069426953</v>
       </c>
       <c r="S2">
-        <v>0.005927987202394286</v>
+        <v>0.00283139719028617</v>
       </c>
       <c r="T2">
-        <v>0.006595060894128181</v>
+        <v>0.003117010072403771</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.192651</v>
+        <v>0.2955753333333333</v>
       </c>
       <c r="H3">
-        <v>0.5779529999999999</v>
+        <v>0.8867259999999999</v>
       </c>
       <c r="I3">
-        <v>0.2471468890314304</v>
+        <v>0.239018529794766</v>
       </c>
       <c r="J3">
-        <v>0.2471468890314304</v>
+        <v>0.2584571780171812</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>44.562893</v>
       </c>
       <c r="O3">
-        <v>0.6725719205657797</v>
+        <v>0.9348876551872286</v>
       </c>
       <c r="P3">
-        <v>0.7482561315281718</v>
+        <v>0.9517870831612478</v>
       </c>
       <c r="Q3">
-        <v>2.861695299781</v>
+        <v>4.390563984257556</v>
       </c>
       <c r="R3">
-        <v>25.755257698029</v>
+        <v>39.515075858318</v>
       </c>
       <c r="S3">
-        <v>0.1662240578177268</v>
+        <v>0.2234554728661275</v>
       </c>
       <c r="T3">
-        <v>0.1849291751058805</v>
+        <v>0.2459962035870602</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,25 +652,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.192651</v>
+        <v>0.2955753333333333</v>
       </c>
       <c r="H4">
-        <v>0.5779529999999999</v>
+        <v>0.8867259999999999</v>
       </c>
       <c r="I4">
-        <v>0.2471468890314304</v>
+        <v>0.239018529794766</v>
       </c>
       <c r="J4">
-        <v>0.2471468890314304</v>
+        <v>0.2584571780171812</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.701772</v>
+        <v>0.8463425</v>
       </c>
       <c r="N4">
-        <v>13.403544</v>
+        <v>1.692685</v>
       </c>
       <c r="O4">
-        <v>0.3034423953512601</v>
+        <v>0.05326641306548233</v>
       </c>
       <c r="P4">
-        <v>0.2250590863166724</v>
+        <v>0.0361528529770452</v>
       </c>
       <c r="Q4">
-        <v>1.291103077572</v>
+        <v>0.2501579665516667</v>
       </c>
       <c r="R4">
-        <v>7.746618465431999</v>
+        <v>1.50094779931</v>
       </c>
       <c r="S4">
-        <v>0.07499484401130931</v>
+        <v>0.0127316597383523</v>
       </c>
       <c r="T4">
-        <v>0.05562265303142176</v>
+        <v>0.009343964357717149</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +729,40 @@
         <v>0.775266</v>
       </c>
       <c r="I5">
-        <v>0.3315227710070558</v>
+        <v>0.2089742936599006</v>
       </c>
       <c r="J5">
-        <v>0.3315227710070558</v>
+        <v>0.2259695357671569</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.5297433333333333</v>
+        <v>0.1882183333333333</v>
       </c>
       <c r="N5">
-        <v>1.58923</v>
+        <v>0.564655</v>
       </c>
       <c r="O5">
-        <v>0.0239856840829601</v>
+        <v>0.01184593174728904</v>
       </c>
       <c r="P5">
-        <v>0.02668478215515578</v>
+        <v>0.01206006386170697</v>
       </c>
       <c r="Q5">
-        <v>0.1368973316866667</v>
+        <v>0.04863975813666667</v>
       </c>
       <c r="R5">
-        <v>1.23207598518</v>
+        <v>0.43775782323</v>
       </c>
       <c r="S5">
-        <v>0.007951800451682764</v>
+        <v>0.00247549521963312</v>
       </c>
       <c r="T5">
-        <v>0.008846612923796881</v>
+        <v>0.00272520703215219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +791,10 @@
         <v>0.775266</v>
       </c>
       <c r="I6">
-        <v>0.3315227710070558</v>
+        <v>0.2089742936599006</v>
       </c>
       <c r="J6">
-        <v>0.3315227710070558</v>
+        <v>0.2259695357671569</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,10 +809,10 @@
         <v>44.562893</v>
       </c>
       <c r="O6">
-        <v>0.6725719205657797</v>
+        <v>0.9348876551872286</v>
       </c>
       <c r="P6">
-        <v>0.7482561315281718</v>
+        <v>0.9517870831612478</v>
       </c>
       <c r="Q6">
         <v>3.838677311615333</v>
@@ -824,10 +821,10 @@
         <v>34.548095804538</v>
       </c>
       <c r="S6">
-        <v>0.2229729068075047</v>
+        <v>0.1953674873941118</v>
       </c>
       <c r="T6">
-        <v>0.2480639461472396</v>
+        <v>0.2150748853311236</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -856,10 +853,10 @@
         <v>0.775266</v>
       </c>
       <c r="I7">
-        <v>0.3315227710070558</v>
+        <v>0.2089742936599006</v>
       </c>
       <c r="J7">
-        <v>0.3315227710070558</v>
+        <v>0.2259695357671569</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.701772</v>
+        <v>0.8463425</v>
       </c>
       <c r="N7">
-        <v>13.403544</v>
+        <v>1.692685</v>
       </c>
       <c r="O7">
-        <v>0.3034423953512601</v>
+        <v>0.05326641306548233</v>
       </c>
       <c r="P7">
-        <v>0.2250590863166724</v>
+        <v>0.0361528529770452</v>
       </c>
       <c r="Q7">
-        <v>1.731885323784</v>
+        <v>0.218713521535</v>
       </c>
       <c r="R7">
-        <v>10.391311942704</v>
+        <v>1.31228112921</v>
       </c>
       <c r="S7">
-        <v>0.1005980637478683</v>
+        <v>0.01113131104615567</v>
       </c>
       <c r="T7">
-        <v>0.07461221193601941</v>
+        <v>0.008169443403881182</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,49 +906,49 @@
         <v>1</v>
       </c>
       <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.27902</v>
+      </c>
+      <c r="H8">
+        <v>0.55804</v>
+      </c>
+      <c r="I8">
+        <v>0.2256309734348681</v>
+      </c>
+      <c r="J8">
+        <v>0.1626539016795581</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G8">
-        <v>0.115147</v>
-      </c>
-      <c r="H8">
-        <v>0.345441</v>
-      </c>
-      <c r="I8">
-        <v>0.1477190506735087</v>
-      </c>
-      <c r="J8">
-        <v>0.1477190506735087</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M8">
-        <v>0.5297433333333333</v>
+        <v>0.1882183333333333</v>
       </c>
       <c r="N8">
-        <v>1.58923</v>
+        <v>0.564655</v>
       </c>
       <c r="O8">
-        <v>0.0239856840829601</v>
+        <v>0.01184593174728904</v>
       </c>
       <c r="P8">
-        <v>0.02668478215515578</v>
+        <v>0.01206006386170697</v>
       </c>
       <c r="Q8">
-        <v>0.06099835560333333</v>
+        <v>0.05251667936666667</v>
       </c>
       <c r="R8">
-        <v>0.5489852004300001</v>
+        <v>0.3151000762</v>
       </c>
       <c r="S8">
-        <v>0.003543142482489553</v>
+        <v>0.002672809111383834</v>
       </c>
       <c r="T8">
-        <v>0.003941850687388997</v>
+        <v>0.001961616441611276</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,19 +968,19 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.115147</v>
+        <v>0.27902</v>
       </c>
       <c r="H9">
-        <v>0.345441</v>
+        <v>0.55804</v>
       </c>
       <c r="I9">
-        <v>0.1477190506735087</v>
+        <v>0.2256309734348681</v>
       </c>
       <c r="J9">
-        <v>0.1477190506735087</v>
+        <v>0.1626539016795581</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,22 +995,22 @@
         <v>44.562893</v>
       </c>
       <c r="O9">
-        <v>0.6725719205657797</v>
+        <v>0.9348876551872286</v>
       </c>
       <c r="P9">
-        <v>0.7482561315281718</v>
+        <v>0.9517870831612478</v>
       </c>
       <c r="Q9">
-        <v>1.710427813423667</v>
+        <v>4.144646134953334</v>
       </c>
       <c r="R9">
-        <v>15.393850320813</v>
+        <v>24.86787680972</v>
       </c>
       <c r="S9">
-        <v>0.09935168561563545</v>
+        <v>0.2109396116921357</v>
       </c>
       <c r="T9">
-        <v>0.1105316854099736</v>
+        <v>0.1548118826443829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,25 +1024,25 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.115147</v>
+        <v>0.27902</v>
       </c>
       <c r="H10">
-        <v>0.345441</v>
+        <v>0.55804</v>
       </c>
       <c r="I10">
-        <v>0.1477190506735087</v>
+        <v>0.2256309734348681</v>
       </c>
       <c r="J10">
-        <v>0.1477190506735087</v>
+        <v>0.1626539016795581</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.701772</v>
+        <v>0.8463425</v>
       </c>
       <c r="N10">
-        <v>13.403544</v>
+        <v>1.692685</v>
       </c>
       <c r="O10">
-        <v>0.3034423953512601</v>
+        <v>0.05326641306548233</v>
       </c>
       <c r="P10">
-        <v>0.2250590863166724</v>
+        <v>0.0361528529770452</v>
       </c>
       <c r="Q10">
-        <v>0.7716889404840001</v>
+        <v>0.23614648435</v>
       </c>
       <c r="R10">
-        <v>4.630133642904</v>
+        <v>0.9445859374</v>
       </c>
       <c r="S10">
-        <v>0.04482422257538364</v>
+        <v>0.01201855263134855</v>
       </c>
       <c r="T10">
-        <v>0.0332455145761461</v>
+        <v>0.005880402593563828</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.4036036666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.210811</v>
+      </c>
+      <c r="I11">
+        <v>0.3263762031104653</v>
+      </c>
+      <c r="J11">
+        <v>0.3529193845361038</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G11">
-        <v>0.21328</v>
-      </c>
-      <c r="H11">
-        <v>0.63984</v>
-      </c>
-      <c r="I11">
-        <v>0.2736112892880052</v>
-      </c>
-      <c r="J11">
-        <v>0.2736112892880052</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M11">
-        <v>0.5297433333333333</v>
+        <v>0.1882183333333333</v>
       </c>
       <c r="N11">
-        <v>1.58923</v>
+        <v>0.564655</v>
       </c>
       <c r="O11">
-        <v>0.0239856840829601</v>
+        <v>0.01184593174728904</v>
       </c>
       <c r="P11">
-        <v>0.02668478215515578</v>
+        <v>0.01206006386170697</v>
       </c>
       <c r="Q11">
-        <v>0.1129836581333333</v>
+        <v>0.07596560946722224</v>
       </c>
       <c r="R11">
-        <v>1.0168529232</v>
+        <v>0.6836904852050001</v>
       </c>
       <c r="S11">
-        <v>0.006562753946393497</v>
+        <v>0.003866230225985917</v>
       </c>
       <c r="T11">
-        <v>0.007301257649841727</v>
+        <v>0.00425623031553973</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.21328</v>
+        <v>0.4036036666666667</v>
       </c>
       <c r="H12">
-        <v>0.63984</v>
+        <v>1.210811</v>
       </c>
       <c r="I12">
-        <v>0.2736112892880052</v>
+        <v>0.3263762031104653</v>
       </c>
       <c r="J12">
-        <v>0.2736112892880052</v>
+        <v>0.3529193845361038</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1184,22 +1181,22 @@
         <v>44.562893</v>
       </c>
       <c r="O12">
-        <v>0.6725719205657797</v>
+        <v>0.9348876551872286</v>
       </c>
       <c r="P12">
-        <v>0.7482561315281718</v>
+        <v>0.9517870831612478</v>
       </c>
       <c r="Q12">
-        <v>3.168124606346667</v>
+        <v>5.995249004024778</v>
       </c>
       <c r="R12">
-        <v>28.51312145712</v>
+        <v>53.95724103622301</v>
       </c>
       <c r="S12">
-        <v>0.1840232703249128</v>
+        <v>0.3051250832348535</v>
       </c>
       <c r="T12">
-        <v>0.2047313248650783</v>
+        <v>0.3359041115986811</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,25 +1210,25 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.21328</v>
+        <v>0.4036036666666667</v>
       </c>
       <c r="H13">
-        <v>0.63984</v>
+        <v>1.210811</v>
       </c>
       <c r="I13">
-        <v>0.2736112892880052</v>
+        <v>0.3263762031104653</v>
       </c>
       <c r="J13">
-        <v>0.2736112892880052</v>
+        <v>0.3529193845361038</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.701772</v>
+        <v>0.8463425</v>
       </c>
       <c r="N13">
-        <v>13.403544</v>
+        <v>1.692685</v>
       </c>
       <c r="O13">
-        <v>0.3034423953512601</v>
+        <v>0.05326641306548233</v>
       </c>
       <c r="P13">
-        <v>0.2250590863166724</v>
+        <v>0.0361528529770452</v>
       </c>
       <c r="Q13">
-        <v>1.42935393216</v>
+        <v>0.3415869362558334</v>
       </c>
       <c r="R13">
-        <v>8.57612359296</v>
+        <v>2.049521617535</v>
       </c>
       <c r="S13">
-        <v>0.08302526501669887</v>
+        <v>0.0173848896496258</v>
       </c>
       <c r="T13">
-        <v>0.06157870677308518</v>
+        <v>0.01275904262188304</v>
       </c>
     </row>
   </sheetData>
